--- a/import/prep/excel/64-5ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ ธค63(1-28กพ64).xlsx
+++ b/import/prep/excel/64-5ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ ธค63(1-28กพ64).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jirapatmalai/Works/WMA201AM1/import/prep/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Works/WMA201AM1/import/prep/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743CB472-799D-B44D-A7E8-30FB61C2F99A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD425BC2-9EF2-514D-BA73-8360F3740595}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="50140" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type2" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">type2!$A$4:$T$819</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">type3!$A$4:$Y$247</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -11680,7 +11680,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -11818,17 +11818,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -11848,7 +11837,7 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12260,6 +12249,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12293,21 +12284,6 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12338,13 +12314,19 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12356,8 +12338,6 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -12674,22 +12654,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="166" t="s">
         <v>3070</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="156"/>
@@ -12711,25 +12691,25 @@
       <c r="P2" s="128"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="165" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="163" t="s">
+      <c r="D3" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="163" t="s">
+      <c r="E3" s="165" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="167" t="s">
+      <c r="G3" s="169" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="157" t="s">
@@ -12738,47 +12718,47 @@
       <c r="I3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="163" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="163" t="s">
+      <c r="J3" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="165" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="163" t="s">
+      <c r="M3" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="166" t="s">
+      <c r="N3" s="168" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="163"/>
-      <c r="B4" s="163"/>
+      <c r="A4" s="165"/>
+      <c r="B4" s="165"/>
       <c r="C4" s="155" t="s">
         <v>2287</v>
       </c>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
       <c r="F4" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="167"/>
+      <c r="G4" s="169"/>
       <c r="H4" s="157" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
       <c r="L4" s="155" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="163"/>
-      <c r="N4" s="166"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="168"/>
       <c r="R4" s="100" t="s">
         <v>3071</v>
       </c>
@@ -54266,22 +54246,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="167" t="s">
         <v>3369</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
       <c r="O1" s="99"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.4">
@@ -54302,25 +54282,25 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="170" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="168" t="s">
+      <c r="D3" s="170" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="168" t="s">
+      <c r="E3" s="170" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="170" t="s">
+      <c r="G3" s="172" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="157" t="s">
@@ -54329,47 +54309,47 @@
       <c r="I3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="168" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="168" t="s">
+      <c r="J3" s="170" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="170" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="168" t="s">
+      <c r="M3" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="172" t="s">
+      <c r="N3" s="174" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A4" s="169"/>
-      <c r="B4" s="169"/>
+      <c r="A4" s="171"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="155" t="s">
         <v>2287</v>
       </c>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
       <c r="F4" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="171"/>
+      <c r="G4" s="173"/>
       <c r="H4" s="157" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
       <c r="L4" s="155" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="169"/>
-      <c r="N4" s="173"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="175"/>
       <c r="Q4" s="102"/>
       <c r="R4" s="103" t="s">
         <v>3037</v>
@@ -66978,8 +66958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q237" sqref="Q236:Q237"/>
+    <sheetView tabSelected="1" topLeftCell="H178" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T186" sqref="T186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -67006,25 +66986,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="176" t="s">
         <v>3068</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
-      <c r="K1" s="179"/>
-      <c r="L1" s="179"/>
-      <c r="M1" s="179"/>
-      <c r="N1" s="179"/>
-      <c r="O1" s="179"/>
-      <c r="P1" s="179"/>
-      <c r="Q1" s="179"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
       <c r="R1" s="53"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
@@ -67052,82 +67032,82 @@
       <c r="R2" s="58"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="180" t="s">
+      <c r="D3" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="163" t="s">
+      <c r="E3" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="168" t="s">
+      <c r="F3" s="170" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="168" t="s">
+      <c r="H3" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="185" t="s">
+      <c r="I3" s="182" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="122"/>
-      <c r="K3" s="181" t="s">
+      <c r="K3" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="187" t="s">
+      <c r="L3" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="181" t="s">
+      <c r="M3" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="181" t="s">
+      <c r="N3" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="181" t="s">
+      <c r="O3" s="178" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="183" t="s">
+      <c r="Q3" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="177" t="s">
+      <c r="R3" s="186" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="163"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="169"/>
+      <c r="A4" s="165"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="171"/>
       <c r="G4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="169"/>
-      <c r="I4" s="186"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="183"/>
       <c r="J4" s="123"/>
-      <c r="K4" s="182"/>
-      <c r="L4" s="188"/>
-      <c r="M4" s="182"/>
-      <c r="N4" s="182"/>
-      <c r="O4" s="182"/>
+      <c r="K4" s="179"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="179"/>
+      <c r="N4" s="179"/>
+      <c r="O4" s="179"/>
       <c r="P4" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="184"/>
-      <c r="R4" s="178"/>
+      <c r="Q4" s="181"/>
+      <c r="R4" s="187"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="51">
@@ -76204,7 +76184,7 @@
         <v>1.96</v>
       </c>
       <c r="P155" s="64">
-        <f t="shared" ref="P155:P218" si="19">ROUNDDOWN(H155+I155+N155,2)</f>
+        <f t="shared" ref="P155:R218" si="19">ROUNDDOWN(H155+I155+N155,2)</f>
         <v>29.96</v>
       </c>
       <c r="Q155" s="132">
@@ -77472,7 +77452,7 @@
       </c>
       <c r="R176" s="132"/>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A177" s="51">
         <v>173</v>
       </c>
@@ -77532,7 +77512,7 @@
       </c>
       <c r="R177" s="132"/>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A178" s="51">
         <v>174</v>
       </c>
@@ -77592,7 +77572,7 @@
       </c>
       <c r="R178" s="132"/>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A179" s="51">
         <v>175</v>
       </c>
@@ -77652,7 +77632,7 @@
       </c>
       <c r="R179" s="132"/>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A180" s="51">
         <v>176</v>
       </c>
@@ -77712,7 +77692,7 @@
       </c>
       <c r="R180" s="132"/>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A181" s="51">
         <v>177</v>
       </c>
@@ -77772,7 +77752,7 @@
       </c>
       <c r="R181" s="132"/>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A182" s="51">
         <v>178</v>
       </c>
@@ -77827,12 +77807,21 @@
         <f t="shared" si="19"/>
         <v>119.84</v>
       </c>
-      <c r="Q182" s="174">
+      <c r="Q182" s="64">
+        <v>119.84</v>
+      </c>
+      <c r="R182" s="64">
+        <v>119.84</v>
+      </c>
+      <c r="S182" s="163">
+        <f>SUM(R182:R193)</f>
+        <v>797.74999999999989</v>
+      </c>
+      <c r="T182" s="163">
         <v>797.75</v>
       </c>
-      <c r="R182" s="132"/>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A183" s="51">
         <v>179</v>
       </c>
@@ -77887,10 +77876,14 @@
         <f t="shared" si="19"/>
         <v>116.09</v>
       </c>
-      <c r="Q183" s="176"/>
-      <c r="R183" s="132"/>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q183" s="64">
+        <v>116.1</v>
+      </c>
+      <c r="R183" s="64">
+        <v>116.1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A184" s="51">
         <v>180</v>
       </c>
@@ -77945,10 +77938,14 @@
         <f t="shared" si="19"/>
         <v>78.64</v>
       </c>
-      <c r="Q184" s="176"/>
-      <c r="R184" s="132"/>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q184" s="64">
+        <v>78.650000000000006</v>
+      </c>
+      <c r="R184" s="64">
+        <v>78.650000000000006</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A185" s="51">
         <v>181</v>
       </c>
@@ -78003,10 +78000,14 @@
         <f t="shared" si="19"/>
         <v>22.47</v>
       </c>
-      <c r="Q185" s="176"/>
-      <c r="R185" s="132"/>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q185" s="64">
+        <v>22.5</v>
+      </c>
+      <c r="R185" s="64">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A186" s="51">
         <v>182</v>
       </c>
@@ -78061,10 +78062,14 @@
         <f t="shared" si="19"/>
         <v>29.96</v>
       </c>
-      <c r="Q186" s="176"/>
-      <c r="R186" s="132"/>
-    </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q186" s="64">
+        <v>29.96</v>
+      </c>
+      <c r="R186" s="64">
+        <v>29.96</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A187" s="51">
         <v>183</v>
       </c>
@@ -78119,10 +78124,14 @@
         <f t="shared" si="19"/>
         <v>37.450000000000003</v>
       </c>
-      <c r="Q187" s="176"/>
-      <c r="R187" s="132"/>
-    </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q187" s="64">
+        <v>37.450000000000003</v>
+      </c>
+      <c r="R187" s="64">
+        <v>37.450000000000003</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A188" s="51">
         <v>184</v>
       </c>
@@ -78177,10 +78186,14 @@
         <f t="shared" si="19"/>
         <v>78.64</v>
       </c>
-      <c r="Q188" s="176"/>
-      <c r="R188" s="132"/>
-    </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q188" s="64">
+        <v>78.64</v>
+      </c>
+      <c r="R188" s="64">
+        <v>78.64</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A189" s="51">
         <v>185</v>
       </c>
@@ -78235,10 +78248,14 @@
         <f t="shared" si="19"/>
         <v>67.41</v>
       </c>
-      <c r="Q189" s="176"/>
-      <c r="R189" s="132"/>
-    </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q189" s="64">
+        <v>67.45</v>
+      </c>
+      <c r="R189" s="64">
+        <v>67.45</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A190" s="51">
         <v>186</v>
       </c>
@@ -78293,10 +78310,14 @@
         <f t="shared" si="19"/>
         <v>63.66</v>
       </c>
-      <c r="Q190" s="176"/>
-      <c r="R190" s="132"/>
-    </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q190" s="64">
+        <v>63.66</v>
+      </c>
+      <c r="R190" s="64">
+        <v>63.66</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A191" s="51">
         <v>187</v>
       </c>
@@ -78351,10 +78372,14 @@
         <f t="shared" si="19"/>
         <v>67.41</v>
       </c>
-      <c r="Q191" s="176"/>
-      <c r="R191" s="132"/>
-    </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q191" s="64">
+        <v>67.41</v>
+      </c>
+      <c r="R191" s="64">
+        <v>67.41</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A192" s="51">
         <v>188</v>
       </c>
@@ -78409,10 +78434,14 @@
         <f t="shared" si="19"/>
         <v>63.66</v>
       </c>
-      <c r="Q192" s="176"/>
-      <c r="R192" s="132"/>
-    </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q192" s="64">
+        <v>63.66</v>
+      </c>
+      <c r="R192" s="64">
+        <v>63.66</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A193" s="51">
         <v>189</v>
       </c>
@@ -78467,10 +78496,14 @@
         <f t="shared" si="19"/>
         <v>52.43</v>
       </c>
-      <c r="Q193" s="175"/>
-      <c r="R193" s="132"/>
-    </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q193" s="64">
+        <v>52.43</v>
+      </c>
+      <c r="R193" s="64">
+        <v>52.43</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A194" s="51">
         <v>190</v>
       </c>
@@ -78525,12 +78558,21 @@
         <f t="shared" si="19"/>
         <v>3.74</v>
       </c>
-      <c r="Q194" s="174">
+      <c r="Q194" s="163">
+        <v>3.75</v>
+      </c>
+      <c r="R194" s="163">
+        <v>3.75</v>
+      </c>
+      <c r="S194" s="163">
+        <f>SUM(R194:R203)</f>
         <v>41.25</v>
       </c>
-      <c r="R194" s="132"/>
-    </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="T194" s="163">
+        <v>41.25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A195" s="51">
         <v>191</v>
       </c>
@@ -78585,10 +78627,14 @@
         <f t="shared" si="19"/>
         <v>3.74</v>
       </c>
-      <c r="Q195" s="176"/>
-      <c r="R195" s="132"/>
-    </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q195" s="163">
+        <v>3.75</v>
+      </c>
+      <c r="R195" s="163">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A196" s="51">
         <v>192</v>
       </c>
@@ -78643,10 +78689,14 @@
         <f t="shared" si="19"/>
         <v>7.49</v>
       </c>
-      <c r="Q196" s="176"/>
-      <c r="R196" s="132"/>
-    </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q196" s="132">
+        <v>7.5</v>
+      </c>
+      <c r="R196" s="132">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A197" s="51">
         <v>193</v>
       </c>
@@ -78701,10 +78751,14 @@
         <f t="shared" si="19"/>
         <v>3.74</v>
       </c>
-      <c r="Q197" s="176"/>
-      <c r="R197" s="132"/>
-    </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q197" s="132">
+        <v>3.75</v>
+      </c>
+      <c r="R197" s="132">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A198" s="51">
         <v>194</v>
       </c>
@@ -78759,10 +78813,14 @@
         <f t="shared" si="19"/>
         <v>3.74</v>
       </c>
-      <c r="Q198" s="176"/>
-      <c r="R198" s="132"/>
-    </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q198" s="132">
+        <v>3.75</v>
+      </c>
+      <c r="R198" s="132">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A199" s="51">
         <v>195</v>
       </c>
@@ -78817,10 +78875,14 @@
         <f t="shared" si="19"/>
         <v>3.74</v>
       </c>
-      <c r="Q199" s="176"/>
-      <c r="R199" s="132"/>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q199" s="132">
+        <v>3.75</v>
+      </c>
+      <c r="R199" s="132">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A200" s="51">
         <v>196</v>
       </c>
@@ -78875,10 +78937,14 @@
         <f t="shared" si="19"/>
         <v>3.74</v>
       </c>
-      <c r="Q200" s="176"/>
-      <c r="R200" s="132"/>
-    </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q200" s="132">
+        <v>3.75</v>
+      </c>
+      <c r="R200" s="132">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A201" s="51">
         <v>197</v>
       </c>
@@ -78933,10 +78999,14 @@
         <f t="shared" si="19"/>
         <v>3.74</v>
       </c>
-      <c r="Q201" s="176"/>
-      <c r="R201" s="132"/>
-    </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q201" s="132">
+        <v>3.75</v>
+      </c>
+      <c r="R201" s="132">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A202" s="51">
         <v>198</v>
       </c>
@@ -78991,10 +79061,14 @@
         <f t="shared" si="19"/>
         <v>3.74</v>
       </c>
-      <c r="Q202" s="176"/>
-      <c r="R202" s="132"/>
-    </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q202" s="132">
+        <v>3.75</v>
+      </c>
+      <c r="R202" s="132">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A203" s="51">
         <v>199</v>
       </c>
@@ -79049,10 +79123,14 @@
         <f t="shared" si="19"/>
         <v>3.74</v>
       </c>
-      <c r="Q203" s="175"/>
-      <c r="R203" s="132"/>
-    </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q203" s="132">
+        <v>3.75</v>
+      </c>
+      <c r="R203" s="132">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A204" s="51">
         <v>200</v>
       </c>
@@ -79112,7 +79190,7 @@
       </c>
       <c r="R204" s="132"/>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A205" s="51">
         <v>201</v>
       </c>
@@ -79172,7 +79250,7 @@
       </c>
       <c r="R205" s="132"/>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A206" s="51">
         <v>202</v>
       </c>
@@ -79232,7 +79310,7 @@
       </c>
       <c r="R206" s="132"/>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A207" s="51">
         <v>203</v>
       </c>
@@ -79292,7 +79370,7 @@
       </c>
       <c r="R207" s="132"/>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A208" s="51">
         <v>204</v>
       </c>
@@ -81027,7 +81105,7 @@
         <f t="shared" si="25"/>
         <v>7.49</v>
       </c>
-      <c r="Q236" s="195">
+      <c r="Q236" s="163">
         <v>7.49</v>
       </c>
       <c r="R236" s="132"/>
@@ -81087,7 +81165,7 @@
         <f t="shared" si="25"/>
         <v>123.58</v>
       </c>
-      <c r="Q237" s="196">
+      <c r="Q237" s="164">
         <v>123.58</v>
       </c>
       <c r="R237" s="132"/>
@@ -83606,7 +83684,7 @@
         <f t="shared" si="25"/>
         <v>3.74</v>
       </c>
-      <c r="Q279" s="195">
+      <c r="Q279" s="163">
         <v>3.75</v>
       </c>
       <c r="R279" s="132"/>
@@ -83666,7 +83744,7 @@
         <f t="shared" si="25"/>
         <v>3.74</v>
       </c>
-      <c r="Q280" s="196">
+      <c r="Q280" s="164">
         <v>3.75</v>
       </c>
       <c r="R280" s="132"/>
@@ -83781,7 +83859,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="16">
+    <mergeCell ref="R3:R4"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -83797,9 +83876,6 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="Q194:Q203"/>
-    <mergeCell ref="Q182:Q193"/>
-    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -83842,25 +83918,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="176" t="s">
         <v>3069</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
-      <c r="K1" s="179"/>
-      <c r="L1" s="179"/>
-      <c r="M1" s="179"/>
-      <c r="N1" s="179"/>
-      <c r="O1" s="179"/>
-      <c r="P1" s="179"/>
-      <c r="Q1" s="179"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
       <c r="R1" s="53"/>
       <c r="S1" s="139"/>
       <c r="T1" s="139"/>
@@ -83896,99 +83972,99 @@
       <c r="Z2" s="24"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="180" t="s">
+      <c r="D3" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="163" t="s">
+      <c r="E3" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="168" t="s">
+      <c r="F3" s="170" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="168" t="s">
+      <c r="H3" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="185" t="s">
+      <c r="I3" s="182" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="122"/>
-      <c r="K3" s="181" t="s">
+      <c r="K3" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="187" t="s">
+      <c r="L3" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="181" t="s">
+      <c r="M3" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="181" t="s">
+      <c r="N3" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="181" t="s">
+      <c r="O3" s="178" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="183" t="s">
+      <c r="Q3" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="193" t="s">
+      <c r="R3" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="194">
+      <c r="S3" s="193">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T3" s="192" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="189" t="s">
+      <c r="T3" s="191" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="190" t="s">
+      <c r="V3" s="189" t="s">
         <v>20</v>
       </c>
       <c r="Z3" s="24"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="163"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="169"/>
+      <c r="A4" s="165"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="171"/>
       <c r="G4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="169"/>
-      <c r="I4" s="186"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="183"/>
       <c r="J4" s="123"/>
-      <c r="K4" s="182"/>
-      <c r="L4" s="188"/>
-      <c r="M4" s="182"/>
-      <c r="N4" s="182"/>
-      <c r="O4" s="182"/>
+      <c r="K4" s="179"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="179"/>
+      <c r="N4" s="179"/>
+      <c r="O4" s="179"/>
       <c r="P4" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="191"/>
-      <c r="R4" s="193"/>
-      <c r="S4" s="194"/>
-      <c r="T4" s="192"/>
-      <c r="U4" s="189"/>
-      <c r="V4" s="190"/>
+      <c r="Q4" s="190"/>
+      <c r="R4" s="192"/>
+      <c r="S4" s="193"/>
+      <c r="T4" s="191"/>
+      <c r="U4" s="188"/>
+      <c r="V4" s="189"/>
       <c r="Z4" s="24"/>
     </row>
     <row r="5" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -89302,15 +89378,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -89322,6 +89389,15 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="K3:K4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
